--- a/team_specific_matrix/Delaware_B.xlsx
+++ b/team_specific_matrix/Delaware_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2037914691943128</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="C2">
-        <v>0.5165876777251185</v>
+        <v>0.5180952380952381</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01658767772511848</v>
+        <v>0.01523809523809524</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1516587677725119</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1113744075829384</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01801801801801802</v>
+        <v>0.01805054151624549</v>
       </c>
       <c r="C3">
-        <v>0.01801801801801802</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02527075812274368</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7567567567567568</v>
+        <v>0.7545126353790613</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1801801801801802</v>
+        <v>0.1877256317689531</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09433962264150944</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6226415094339622</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2830188679245283</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0471976401179941</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005899705014749262</v>
+        <v>0.009411764705882352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06489675516224189</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2654867256637168</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02359882005899705</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1592920353982301</v>
+        <v>0.1458823529411765</v>
       </c>
       <c r="R6">
-        <v>0.05899705014749262</v>
+        <v>0.06352941176470588</v>
       </c>
       <c r="S6">
-        <v>0.3746312684365782</v>
+        <v>0.3788235294117647</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1107594936708861</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006329113924050633</v>
+        <v>0.007731958762886598</v>
       </c>
       <c r="E7">
-        <v>0.003164556962025316</v>
+        <v>0.002577319587628866</v>
       </c>
       <c r="F7">
-        <v>0.03164556962025317</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1265822784810127</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0379746835443038</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1993670886075949</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="R7">
-        <v>0.06645569620253164</v>
+        <v>0.06958762886597938</v>
       </c>
       <c r="S7">
-        <v>0.4177215189873418</v>
+        <v>0.4252577319587629</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07427055702917772</v>
+        <v>0.07403433476394849</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01591511936339523</v>
+        <v>0.01394849785407725</v>
       </c>
       <c r="E8">
-        <v>0.002652519893899204</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="F8">
-        <v>0.06631299734748011</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1206896551724138</v>
+        <v>0.1223175965665236</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01724137931034483</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1657824933687003</v>
+        <v>0.167381974248927</v>
       </c>
       <c r="R8">
-        <v>0.1007957559681698</v>
+        <v>0.09334763948497854</v>
       </c>
       <c r="S8">
-        <v>0.4363395225464191</v>
+        <v>0.4452789699570815</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008695652173913044</v>
+        <v>0.01056338028169014</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06956521739130435</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08695652173913043</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0391304347826087</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1826086956521739</v>
+        <v>0.1866197183098592</v>
       </c>
       <c r="R9">
-        <v>0.1217391304347826</v>
+        <v>0.1232394366197183</v>
       </c>
       <c r="S9">
-        <v>0.391304347826087</v>
+        <v>0.3838028169014084</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053208996160176</v>
+        <v>0.1039189784236019</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02029621503017005</v>
+        <v>0.01981505944517833</v>
       </c>
       <c r="E10">
-        <v>0.002194185408667032</v>
+        <v>0.001761338617349185</v>
       </c>
       <c r="F10">
-        <v>0.06911684037301152</v>
+        <v>0.07001321003963012</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1091607240811849</v>
+        <v>0.1096433289299868</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01481075150850247</v>
+        <v>0.01365037428445619</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2024136039495337</v>
+        <v>0.2016732716864817</v>
       </c>
       <c r="R10">
-        <v>0.0850246845858475</v>
+        <v>0.08718626155878467</v>
       </c>
       <c r="S10">
-        <v>0.3916620954470653</v>
+        <v>0.3923381770145311</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1902748414376321</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08668076109936575</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="K11">
-        <v>0.2367864693446089</v>
+        <v>0.2403361344537815</v>
       </c>
       <c r="L11">
-        <v>0.4778012684989429</v>
+        <v>0.4739495798319328</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008456659619450317</v>
+        <v>0.01344537815126051</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7679324894514767</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1814345991561181</v>
+        <v>0.1802721088435374</v>
       </c>
       <c r="K12">
-        <v>0.008438818565400843</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="L12">
-        <v>0.02109704641350211</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02109704641350211</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7402597402597403</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2467532467532468</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01298701298701299</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01801801801801802</v>
+        <v>0.01678657074340528</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2012012012012012</v>
+        <v>0.1990407673860911</v>
       </c>
       <c r="I15">
-        <v>0.05105105105105105</v>
+        <v>0.05275779376498801</v>
       </c>
       <c r="J15">
-        <v>0.3483483483483483</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="K15">
-        <v>0.08108108108108109</v>
+        <v>0.09112709832134293</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009009009009009009</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="N15">
-        <v>0.003003003003003003</v>
+        <v>0.002398081534772182</v>
       </c>
       <c r="O15">
-        <v>0.07207207207207207</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2162162162162162</v>
+        <v>0.1966426858513189</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03461538461538462</v>
+        <v>0.03115264797507788</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1923076923076923</v>
+        <v>0.1931464174454829</v>
       </c>
       <c r="I16">
-        <v>0.05</v>
+        <v>0.04361370716510903</v>
       </c>
       <c r="J16">
-        <v>0.3807692307692307</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="K16">
-        <v>0.1307692307692308</v>
+        <v>0.1246105919003115</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02692307692307692</v>
+        <v>0.02180685358255452</v>
       </c>
       <c r="N16">
-        <v>0.003846153846153846</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="O16">
-        <v>0.02307692307692308</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1576923076923077</v>
+        <v>0.161993769470405</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02623456790123457</v>
+        <v>0.0262828535669587</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2114197530864197</v>
+        <v>0.2027534418022528</v>
       </c>
       <c r="I17">
-        <v>0.07253086419753087</v>
+        <v>0.07509386733416772</v>
       </c>
       <c r="J17">
-        <v>0.404320987654321</v>
+        <v>0.3942428035043805</v>
       </c>
       <c r="K17">
-        <v>0.08796296296296297</v>
+        <v>0.08760951188986232</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03395061728395062</v>
+        <v>0.03003754693366708</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05246913580246913</v>
+        <v>0.06257822277847309</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1214017521902378</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02684563758389262</v>
+        <v>0.02412868632707775</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2147651006711409</v>
+        <v>0.2171581769436997</v>
       </c>
       <c r="I18">
-        <v>0.0738255033557047</v>
+        <v>0.07506702412868632</v>
       </c>
       <c r="J18">
-        <v>0.3993288590604027</v>
+        <v>0.3941018766756032</v>
       </c>
       <c r="K18">
-        <v>0.08053691275167785</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01342281879194631</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08389261744966443</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1073825503355705</v>
+        <v>0.1152815013404826</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02180685358255452</v>
+        <v>0.02237878159966846</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2258566978193146</v>
+        <v>0.226688769167012</v>
       </c>
       <c r="I19">
-        <v>0.06853582554517133</v>
+        <v>0.06713634479900539</v>
       </c>
       <c r="J19">
-        <v>0.3603322949117342</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="K19">
-        <v>0.1100726895119419</v>
+        <v>0.1098217985909656</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02336448598130841</v>
+        <v>0.02320762536261915</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06853582554517133</v>
+        <v>0.06920845420638209</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1214953271028037</v>
+        <v>0.1193535018648985</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Delaware_B.xlsx
+++ b/team_specific_matrix/Delaware_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2095238095238095</v>
+        <v>0.2107081174438687</v>
       </c>
       <c r="C2">
-        <v>0.5180952380952381</v>
+        <v>0.5181347150259067</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01523809523809524</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1523809523809524</v>
+        <v>0.153713298791019</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1047619047619048</v>
+        <v>0.1036269430051813</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01805054151624549</v>
+        <v>0.01967213114754099</v>
       </c>
       <c r="C3">
-        <v>0.01444043321299639</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02527075812274368</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7545126353790613</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1877256317689531</v>
+        <v>0.1770491803278688</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07575757575757576</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5909090909090909</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.0568421052631579</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009411764705882352</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05882352941176471</v>
+        <v>0.0568421052631579</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2611764705882353</v>
+        <v>0.2505263157894737</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02352941176470588</v>
+        <v>0.02526315789473684</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1458823529411765</v>
+        <v>0.1494736842105263</v>
       </c>
       <c r="R6">
-        <v>0.06352941176470588</v>
+        <v>0.06947368421052631</v>
       </c>
       <c r="S6">
-        <v>0.3788235294117647</v>
+        <v>0.3831578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1082474226804124</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007731958762886598</v>
+        <v>0.007009345794392523</v>
       </c>
       <c r="E7">
-        <v>0.002577319587628866</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="F7">
-        <v>0.05154639175257732</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134020618556701</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03092783505154639</v>
+        <v>0.03037383177570093</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907216494845361</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="R7">
-        <v>0.06958762886597938</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="S7">
-        <v>0.4252577319587629</v>
+        <v>0.4299065420560748</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07403433476394849</v>
+        <v>0.07714561234329798</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01394849785407725</v>
+        <v>0.01350048216007715</v>
       </c>
       <c r="E8">
-        <v>0.002145922746781116</v>
+        <v>0.001928640308582449</v>
       </c>
       <c r="F8">
-        <v>0.06437768240343347</v>
+        <v>0.0626808100289296</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1223175965665236</v>
+        <v>0.1234329797492768</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01716738197424893</v>
+        <v>0.01832208293153327</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.167381974248927</v>
+        <v>0.1677917068466731</v>
       </c>
       <c r="R8">
-        <v>0.09334763948497854</v>
+        <v>0.08968177434908389</v>
       </c>
       <c r="S8">
-        <v>0.4452789699570815</v>
+        <v>0.4455159112825458</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09154929577464789</v>
+        <v>0.08437500000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01056338028169014</v>
+        <v>0.009375</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06338028169014084</v>
+        <v>0.065625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1056338028169014</v>
+        <v>0.1125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0352112676056338</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1866197183098592</v>
+        <v>0.203125</v>
       </c>
       <c r="R9">
-        <v>0.1232394366197183</v>
+        <v>0.11875</v>
       </c>
       <c r="S9">
-        <v>0.3838028169014084</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1039189784236019</v>
+        <v>0.1002358490566038</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01981505944517833</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E10">
-        <v>0.001761338617349185</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="F10">
-        <v>0.07001321003963012</v>
+        <v>0.07114779874213836</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1096433289299868</v>
+        <v>0.112814465408805</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01365037428445619</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2016732716864817</v>
+        <v>0.2032232704402516</v>
       </c>
       <c r="R10">
-        <v>0.08718626155878467</v>
+        <v>0.08883647798742138</v>
       </c>
       <c r="S10">
-        <v>0.3923381770145311</v>
+        <v>0.3856132075471698</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1882352941176471</v>
+        <v>0.1836115326251897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08403361344537816</v>
+        <v>0.08952959028831563</v>
       </c>
       <c r="K11">
-        <v>0.2403361344537815</v>
+        <v>0.2367223065250379</v>
       </c>
       <c r="L11">
-        <v>0.4739495798319328</v>
+        <v>0.4779969650986343</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01344537815126051</v>
+        <v>0.01213960546282246</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7619047619047619</v>
+        <v>0.7689969604863222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1802721088435374</v>
+        <v>0.1793313069908815</v>
       </c>
       <c r="K12">
-        <v>0.01360544217687075</v>
+        <v>0.0121580547112462</v>
       </c>
       <c r="L12">
-        <v>0.02040816326530612</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02380952380952381</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2555555555555555</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01111111111111111</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01678657074340528</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1990407673860911</v>
+        <v>0.1936842105263158</v>
       </c>
       <c r="I15">
-        <v>0.05275779376498801</v>
+        <v>0.0568421052631579</v>
       </c>
       <c r="J15">
-        <v>0.3597122302158273</v>
+        <v>0.3621052631578948</v>
       </c>
       <c r="K15">
-        <v>0.09112709832134293</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007194244604316547</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="N15">
-        <v>0.002398081534772182</v>
+        <v>0.002105263157894737</v>
       </c>
       <c r="O15">
-        <v>0.07434052757793765</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1966426858513189</v>
+        <v>0.1978947368421053</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03115264797507788</v>
+        <v>0.03380281690140845</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1931464174454829</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="I16">
-        <v>0.04361370716510903</v>
+        <v>0.04507042253521127</v>
       </c>
       <c r="J16">
-        <v>0.3925233644859813</v>
+        <v>0.3859154929577465</v>
       </c>
       <c r="K16">
-        <v>0.1246105919003115</v>
+        <v>0.123943661971831</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02180685358255452</v>
+        <v>0.02253521126760564</v>
       </c>
       <c r="N16">
-        <v>0.003115264797507788</v>
+        <v>0.002816901408450704</v>
       </c>
       <c r="O16">
-        <v>0.02803738317757009</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.161993769470405</v>
+        <v>0.1605633802816901</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0262828535669587</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2027534418022528</v>
+        <v>0.2097669256381798</v>
       </c>
       <c r="I17">
-        <v>0.07509386733416772</v>
+        <v>0.0732519422863485</v>
       </c>
       <c r="J17">
-        <v>0.3942428035043805</v>
+        <v>0.390677025527192</v>
       </c>
       <c r="K17">
-        <v>0.08760951188986232</v>
+        <v>0.08879023307436182</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03003754693366708</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06257822277847309</v>
+        <v>0.06659267480577137</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1214017521902378</v>
+        <v>0.1187569367369589</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02412868632707775</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2171581769436997</v>
+        <v>0.2114014251781473</v>
       </c>
       <c r="I18">
-        <v>0.07506702412868632</v>
+        <v>0.07600950118764846</v>
       </c>
       <c r="J18">
-        <v>0.3941018766756032</v>
+        <v>0.3990498812351544</v>
       </c>
       <c r="K18">
-        <v>0.08042895442359249</v>
+        <v>0.08788598574821853</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01072386058981233</v>
+        <v>0.009501187648456057</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08310991957104558</v>
+        <v>0.07838479809976247</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1152815013404826</v>
+        <v>0.1116389548693587</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02237878159966846</v>
+        <v>0.02027788208787082</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.226688769167012</v>
+        <v>0.2260608336462636</v>
       </c>
       <c r="I19">
-        <v>0.06713634479900539</v>
+        <v>0.06721742395794217</v>
       </c>
       <c r="J19">
-        <v>0.3622047244094488</v>
+        <v>0.3646263612467142</v>
       </c>
       <c r="K19">
-        <v>0.1098217985909656</v>
+        <v>0.1096507698084867</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02320762536261915</v>
+        <v>0.02253098009763425</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06920845420638209</v>
+        <v>0.07134810364250845</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1193535018648985</v>
+        <v>0.1182876455125798</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Delaware_B.xlsx
+++ b/team_specific_matrix/Delaware_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2107081174438687</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5181347150259067</v>
+        <v>0.5216666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01381692573402418</v>
+        <v>0.015</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.153713298791019</v>
+        <v>0.1516666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1036269430051813</v>
+        <v>0.1033333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01967213114754099</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="C3">
-        <v>0.01639344262295082</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03278688524590164</v>
+        <v>0.03134796238244514</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7540983606557377</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1770491803278688</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06756756756756757</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6081081081081081</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3243243243243243</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0568421052631579</v>
+        <v>0.05510204081632653</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008421052631578947</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0568421052631579</v>
+        <v>0.05510204081632653</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2505263157894737</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02526315789473684</v>
+        <v>0.02448979591836735</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1494736842105263</v>
+        <v>0.1489795918367347</v>
       </c>
       <c r="R6">
-        <v>0.06947368421052631</v>
+        <v>0.06734693877551021</v>
       </c>
       <c r="S6">
-        <v>0.3831578947368421</v>
+        <v>0.3836734693877551</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1144859813084112</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007009345794392523</v>
+        <v>0.006741573033707865</v>
       </c>
       <c r="E7">
-        <v>0.002336448598130841</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="F7">
-        <v>0.0514018691588785</v>
+        <v>0.05168539325842696</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1074766355140187</v>
+        <v>0.1101123595505618</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03037383177570093</v>
+        <v>0.03146067415730337</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1822429906542056</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="R7">
-        <v>0.07476635514018691</v>
+        <v>0.07640449438202247</v>
       </c>
       <c r="S7">
-        <v>0.4299065420560748</v>
+        <v>0.4292134831460674</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07714561234329798</v>
+        <v>0.07706766917293233</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01350048216007715</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="E8">
-        <v>0.001928640308582449</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="F8">
-        <v>0.0626808100289296</v>
+        <v>0.06203007518796992</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1234329797492768</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01832208293153327</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1677917068466731</v>
+        <v>0.1691729323308271</v>
       </c>
       <c r="R8">
-        <v>0.08968177434908389</v>
+        <v>0.08834586466165413</v>
       </c>
       <c r="S8">
-        <v>0.4455159112825458</v>
+        <v>0.443609022556391</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08437500000000001</v>
+        <v>0.08206686930091185</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009375</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.065625</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1125</v>
+        <v>0.1124620060790274</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.0303951367781155</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.203125</v>
+        <v>0.2036474164133739</v>
       </c>
       <c r="R9">
-        <v>0.11875</v>
+        <v>0.1185410334346505</v>
       </c>
       <c r="S9">
-        <v>0.375</v>
+        <v>0.3799392097264438</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1002358490566038</v>
+        <v>0.1016628873771731</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E10">
-        <v>0.001572327044025157</v>
+        <v>0.001511715797430083</v>
       </c>
       <c r="F10">
-        <v>0.07114779874213836</v>
+        <v>0.07180650037792895</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.112814465408805</v>
+        <v>0.1130007558578987</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01572327044025157</v>
+        <v>0.01511715797430083</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2032232704402516</v>
+        <v>0.2055933484504913</v>
       </c>
       <c r="R10">
-        <v>0.08883647798742138</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="S10">
-        <v>0.3856132075471698</v>
+        <v>0.382464096749811</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1836115326251897</v>
+        <v>0.1797101449275362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08952959028831563</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="K11">
-        <v>0.2367223065250379</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="L11">
-        <v>0.4779969650986343</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01213960546282246</v>
+        <v>0.01159420289855072</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7689969604863222</v>
+        <v>0.7621776504297995</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1793313069908815</v>
+        <v>0.1862464183381089</v>
       </c>
       <c r="K12">
-        <v>0.0121580547112462</v>
+        <v>0.01432664756446991</v>
       </c>
       <c r="L12">
-        <v>0.0182370820668693</v>
+        <v>0.0171919770773639</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02127659574468085</v>
+        <v>0.02005730659025788</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7263157894736842</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01052631578947368</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1936842105263158</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="I15">
-        <v>0.0568421052631579</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="J15">
-        <v>0.3621052631578948</v>
+        <v>0.3613963039014374</v>
       </c>
       <c r="K15">
-        <v>0.08421052631578947</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008421052631578947</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="N15">
-        <v>0.002105263157894737</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="O15">
-        <v>0.07368421052631578</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1978947368421053</v>
+        <v>0.2012320328542095</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03380281690140845</v>
+        <v>0.03513513513513514</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1971830985915493</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="I16">
-        <v>0.04507042253521127</v>
+        <v>0.04594594594594595</v>
       </c>
       <c r="J16">
-        <v>0.3859154929577465</v>
+        <v>0.3756756756756757</v>
       </c>
       <c r="K16">
-        <v>0.123943661971831</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02253521126760564</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="N16">
-        <v>0.002816901408450704</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="O16">
-        <v>0.02816901408450704</v>
+        <v>0.02972972972972973</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1605633802816901</v>
+        <v>0.1648648648648649</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02552719200887902</v>
+        <v>0.02452025586353945</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2097669256381798</v>
+        <v>0.2046908315565032</v>
       </c>
       <c r="I17">
-        <v>0.0732519422863485</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0.390677025527192</v>
+        <v>0.3933901918976546</v>
       </c>
       <c r="K17">
-        <v>0.08879023307436182</v>
+        <v>0.0906183368869936</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02663706992230854</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06659267480577137</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1187569367369589</v>
+        <v>0.1226012793176972</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02612826603325416</v>
+        <v>0.02540415704387991</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2114014251781473</v>
+        <v>0.2078521939953811</v>
       </c>
       <c r="I18">
-        <v>0.07600950118764846</v>
+        <v>0.07621247113163972</v>
       </c>
       <c r="J18">
-        <v>0.3990498812351544</v>
+        <v>0.3972286374133949</v>
       </c>
       <c r="K18">
-        <v>0.08788598574821853</v>
+        <v>0.08775981524249422</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009501187648456057</v>
+        <v>0.009237875288683603</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07838479809976247</v>
+        <v>0.07852193995381063</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1116389548693587</v>
+        <v>0.1177829099307159</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02027788208787082</v>
+        <v>0.02032667876588022</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2260608336462636</v>
+        <v>0.2246823956442831</v>
       </c>
       <c r="I19">
-        <v>0.06721742395794217</v>
+        <v>0.06678765880217785</v>
       </c>
       <c r="J19">
-        <v>0.3646263612467142</v>
+        <v>0.3658802177858439</v>
       </c>
       <c r="K19">
-        <v>0.1096507698084867</v>
+        <v>0.1125226860254084</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02253098009763425</v>
+        <v>0.02286751361161524</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07134810364250845</v>
+        <v>0.07005444646098004</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1182876455125798</v>
+        <v>0.1168784029038113</v>
       </c>
     </row>
   </sheetData>
